--- a/assets/Semi Monthly Second.xlsx
+++ b/assets/Semi Monthly Second.xlsx
@@ -3,13 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06086CD3-A20C-478A-B1B4-E0BE9A8288B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD0D6B9-4AEE-44A0-81CC-EAAE76FD7B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="પત્રક (1 - 16)" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'પત્રક (1 - 16)'!$A$1:$O$59</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
@@ -361,65 +364,65 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -765,49 +768,49 @@
   </sheetPr>
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12" style="30" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" style="30" customWidth="1"/>
-    <col min="3" max="6" width="8.21875" style="30" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" style="30" customWidth="1"/>
-    <col min="9" max="9" width="7.44140625" style="30" customWidth="1"/>
-    <col min="10" max="10" width="8.21875" style="30" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="30" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" style="30" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" style="30" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="30"/>
+    <col min="1" max="1" width="9.5546875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="18" customWidth="1"/>
+    <col min="3" max="6" width="8.21875" style="18" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" style="18" customWidth="1"/>
+    <col min="10" max="10" width="8.21875" style="18" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="18" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" style="18" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="10"/>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
       <c r="M1" s="11"/>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="20"/>
+      <c r="O1" s="29"/>
     </row>
     <row r="2" spans="1:15" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
@@ -842,16 +845,16 @@
       <c r="O3" s="6"/>
     </row>
     <row r="4" spans="1:15" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="21" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
       <c r="G4" s="2" t="s">
         <v>5</v>
       </c>
@@ -867,52 +870,52 @@
       <c r="K4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="M4" s="25"/>
+      <c r="L4" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="34"/>
       <c r="N4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="30" t="s">
+      <c r="O4" s="18" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18" t="s">
+      <c r="C6" s="24"/>
+      <c r="D6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18" t="s">
+      <c r="E6" s="24"/>
+      <c r="F6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18" t="s">
+      <c r="G6" s="24"/>
+      <c r="H6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18" t="s">
+      <c r="I6" s="24"/>
+      <c r="J6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18" t="s">
+      <c r="K6" s="24"/>
+      <c r="L6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="18" t="s">
+      <c r="M6" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
     </row>
     <row r="7" spans="1:15" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="14" t="s">
         <v>15</v>
       </c>
@@ -943,13 +946,13 @@
       <c r="K7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
     </row>
     <row r="8" spans="1:15" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -961,9 +964,9 @@
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
       <c r="L8" s="17"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
     </row>
     <row r="9" spans="1:15" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -982,59 +985,59 @@
       <c r="N9" s="5"/>
     </row>
     <row r="10" spans="1:15" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
     </row>
     <row r="11" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18" t="s">
+      <c r="C11" s="24"/>
+      <c r="D11" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18" t="s">
+      <c r="G11" s="24"/>
+      <c r="H11" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18" t="s">
+      <c r="I11" s="24"/>
+      <c r="J11" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18" t="s">
+      <c r="K11" s="24"/>
+      <c r="L11" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="M11" s="18" t="s">
+      <c r="M11" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
     </row>
     <row r="12" spans="1:15" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="18"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="14" t="s">
         <v>15</v>
       </c>
@@ -1065,10 +1068,10 @@
       <c r="K12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
     </row>
     <row r="13" spans="1:15" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
@@ -1105,11 +1108,11 @@
       <c r="L13" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="M13" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
+      <c r="M13" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
     </row>
     <row r="14" spans="1:15" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
@@ -1146,11 +1149,11 @@
       <c r="L14" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
+      <c r="M14" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
     </row>
     <row r="15" spans="1:15" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
@@ -1187,11 +1190,11 @@
       <c r="L15" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
+      <c r="M15" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
     </row>
     <row r="16" spans="1:15" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
@@ -1228,11 +1231,11 @@
       <c r="L16" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="M16" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
+      <c r="M16" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
     </row>
     <row r="17" spans="1:15" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
@@ -1269,11 +1272,11 @@
       <c r="L17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="M17" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
+      <c r="M17" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
     </row>
     <row r="18" spans="1:15" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
@@ -1310,11 +1313,11 @@
       <c r="L18" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="M18" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
+      <c r="M18" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
     </row>
     <row r="19" spans="1:15" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
@@ -1351,11 +1354,11 @@
       <c r="L19" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="M19" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
+      <c r="M19" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
     </row>
     <row r="20" spans="1:15" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
@@ -1370,9 +1373,9 @@
       <c r="J20" s="14"/>
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
     </row>
     <row r="21" spans="1:15" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
@@ -1387,9 +1390,9 @@
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
     </row>
     <row r="22" spans="1:15" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
@@ -1404,9 +1407,9 @@
       <c r="J22" s="14"/>
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
     </row>
     <row r="23" spans="1:15" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
@@ -1421,9 +1424,9 @@
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
     </row>
     <row r="24" spans="1:15" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
@@ -1438,9 +1441,9 @@
       <c r="J24" s="14"/>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
     </row>
     <row r="25" spans="1:15" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
@@ -1455,9 +1458,9 @@
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
     </row>
     <row r="26" spans="1:15" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
@@ -1472,9 +1475,9 @@
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
     </row>
     <row r="27" spans="1:15" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
@@ -1489,9 +1492,9 @@
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="29"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="27"/>
     </row>
     <row r="28" spans="1:15" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
@@ -1506,9 +1509,9 @@
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="29"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="27"/>
     </row>
     <row r="29" spans="1:15" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
@@ -1523,9 +1526,9 @@
       <c r="J29" s="14"/>
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
     </row>
     <row r="30" spans="1:15" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
@@ -1568,64 +1571,64 @@
       <c r="N30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O30" s="31"/>
+      <c r="O30" s="19"/>
     </row>
     <row r="31" spans="1:15" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
     </row>
     <row r="32" spans="1:15" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18" t="s">
+      <c r="C32" s="24"/>
+      <c r="D32" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18" t="s">
+      <c r="E32" s="24"/>
+      <c r="F32" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18" t="s">
+      <c r="G32" s="24"/>
+      <c r="H32" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18" t="s">
+      <c r="I32" s="24"/>
+      <c r="J32" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18" t="s">
+      <c r="K32" s="24"/>
+      <c r="L32" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="M32" s="26" t="s">
+      <c r="M32" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="N32" s="26"/>
-      <c r="O32" s="26" t="s">
+      <c r="N32" s="28"/>
+      <c r="O32" s="28" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="14" t="s">
         <v>15</v>
       </c>
@@ -1656,14 +1659,14 @@
       <c r="K33" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="L33" s="18"/>
+      <c r="L33" s="24"/>
       <c r="M33" s="16" t="s">
         <v>23</v>
       </c>
       <c r="N33" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="O33" s="26"/>
+      <c r="O33" s="28"/>
     </row>
     <row r="34" spans="1:15" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A34" s="14"/>
@@ -1706,7 +1709,7 @@
       <c r="N34" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="O34" s="32"/>
+      <c r="O34" s="20"/>
     </row>
     <row r="35" spans="1:15" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A35" s="14"/>
@@ -1749,7 +1752,7 @@
       <c r="N35" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="O35" s="32"/>
+      <c r="O35" s="20"/>
     </row>
     <row r="36" spans="1:15" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A36" s="14"/>
@@ -1792,7 +1795,7 @@
       <c r="N36" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="O36" s="32"/>
+      <c r="O36" s="20"/>
     </row>
     <row r="37" spans="1:15" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A37" s="14"/>
@@ -1835,7 +1838,7 @@
       <c r="N37" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="O37" s="32"/>
+      <c r="O37" s="20"/>
     </row>
     <row r="38" spans="1:15" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A38" s="14"/>
@@ -1878,7 +1881,7 @@
       <c r="N38" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="O38" s="32"/>
+      <c r="O38" s="20"/>
     </row>
     <row r="39" spans="1:15" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A39" s="14"/>
@@ -1921,7 +1924,7 @@
       <c r="N39" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="O39" s="32"/>
+      <c r="O39" s="20"/>
     </row>
     <row r="40" spans="1:15" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A40" s="14"/>
@@ -1964,7 +1967,7 @@
       <c r="N40" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="O40" s="32"/>
+      <c r="O40" s="20"/>
     </row>
     <row r="41" spans="1:15" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A41" s="14"/>
@@ -1980,8 +1983,8 @@
       <c r="K41" s="14"/>
       <c r="L41" s="14"/>
       <c r="M41" s="14"/>
-      <c r="N41" s="32"/>
-      <c r="O41" s="32"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="20"/>
     </row>
     <row r="42" spans="1:15" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A42" s="14"/>
@@ -1997,8 +2000,8 @@
       <c r="K42" s="14"/>
       <c r="L42" s="14"/>
       <c r="M42" s="14"/>
-      <c r="N42" s="32"/>
-      <c r="O42" s="32"/>
+      <c r="N42" s="20"/>
+      <c r="O42" s="20"/>
     </row>
     <row r="43" spans="1:15" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
@@ -2017,7 +2020,7 @@
       <c r="N43" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="32"/>
+      <c r="O43" s="20"/>
     </row>
     <row r="44" spans="1:15" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
@@ -2036,7 +2039,7 @@
       <c r="N44" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="O44" s="32"/>
+      <c r="O44" s="20"/>
     </row>
     <row r="45" spans="1:15" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
@@ -2053,7 +2056,7 @@
       <c r="L45" s="14"/>
       <c r="M45" s="14"/>
       <c r="N45" s="14"/>
-      <c r="O45" s="32"/>
+      <c r="O45" s="20"/>
     </row>
     <row r="46" spans="1:15" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
@@ -2072,7 +2075,7 @@
       <c r="N46" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="O46" s="32"/>
+      <c r="O46" s="20"/>
     </row>
     <row r="47" spans="1:15" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A47" s="14"/>
@@ -2091,7 +2094,7 @@
       <c r="N47" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="O47" s="32"/>
+      <c r="O47" s="20"/>
     </row>
     <row r="48" spans="1:15" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A48" s="14"/>
@@ -2107,8 +2110,8 @@
       <c r="K48" s="14"/>
       <c r="L48" s="14"/>
       <c r="M48" s="14"/>
-      <c r="N48" s="32"/>
-      <c r="O48" s="32"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="20"/>
     </row>
     <row r="49" spans="1:15" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A49" s="14"/>
@@ -2124,8 +2127,8 @@
       <c r="K49" s="14"/>
       <c r="L49" s="14"/>
       <c r="M49" s="14"/>
-      <c r="N49" s="32"/>
-      <c r="O49" s="32"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="20"/>
     </row>
     <row r="50" spans="1:15" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A50" s="14"/>
@@ -2141,125 +2144,86 @@
       <c r="K50" s="14"/>
       <c r="L50" s="14"/>
       <c r="M50" s="14"/>
-      <c r="N50" s="32"/>
-      <c r="O50" s="32"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="20"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A54" s="33" t="s">
+      <c r="A54" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B54" s="33"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="33"/>
-      <c r="I54" s="33"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="35"/>
-      <c r="L54" s="35"/>
-      <c r="M54" s="35"/>
-      <c r="N54" s="35"/>
-      <c r="O54" s="35"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="22"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="22"/>
+      <c r="O54" s="22"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A55" s="36"/>
-      <c r="B55" s="36"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="34"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="35"/>
-      <c r="N55" s="35"/>
-      <c r="O55" s="35"/>
+      <c r="A55" s="23"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="22"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A56" s="33" t="s">
+      <c r="A56" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B56" s="33"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="33"/>
-      <c r="I56" s="33"/>
-      <c r="J56" s="34"/>
-      <c r="K56" s="35"/>
-      <c r="M56" s="36"/>
-      <c r="N56" s="36"/>
-      <c r="O56" s="35"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="22"/>
+      <c r="M56" s="23"/>
+      <c r="N56" s="23"/>
+      <c r="O56" s="22"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A57" s="33" t="s">
+      <c r="A57" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B57" s="33"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="34"/>
-      <c r="K57" s="35"/>
-      <c r="L57" s="37" t="s">
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="M57" s="37"/>
-      <c r="N57" s="37"/>
-      <c r="O57" s="35"/>
+      <c r="M57" s="36"/>
+      <c r="N57" s="36"/>
+      <c r="O57" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="N6:O8"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="L4:M4"/>
     <mergeCell ref="A54:I54"/>
     <mergeCell ref="A56:I56"/>
     <mergeCell ref="A57:I57"/>
@@ -2276,8 +2240,47 @@
     <mergeCell ref="A31:O31"/>
     <mergeCell ref="A10:O10"/>
     <mergeCell ref="M6:M8"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N6:O8"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M27:O27"/>
   </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="62" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>